--- a/assets/Hydrology Data Form.xlsx
+++ b/assets/Hydrology Data Form.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIS\Reya\SWCD Tools\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5333C-5126-404C-A1B6-06C12BB61283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA585561-D0B7-4645-A0E8-4A6E2BDB0ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78E9B60F-FF42-41B1-9657-5220695CD867}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78E9B60F-FF42-41B1-9657-5220695CD867}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Calculations!$F$3:$O$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Calculations!$F$3:$J$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,19 +41,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
@@ -66,19 +55,14 @@
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
-      <rc t="2" v="0"/>
+      <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Area</t>
   </si>
@@ -107,9 +91,6 @@
     <t>EFH-2</t>
   </si>
   <si>
-    <t>StreamStats</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -149,31 +130,13 @@
     <t>total divisions</t>
   </si>
   <si>
-    <t>OBJECTID *</t>
-  </si>
-  <si>
-    <t>Shape *</t>
-  </si>
-  <si>
-    <t>LandUse</t>
-  </si>
-  <si>
-    <t>MUSYM</t>
-  </si>
-  <si>
-    <t>Hydrologic Group - Dominant Conditions</t>
-  </si>
-  <si>
-    <t>Shape_Length</t>
-  </si>
-  <si>
-    <t>Shape_Area</t>
-  </si>
-  <si>
-    <t>Runoff Curve Number</t>
-  </si>
-  <si>
     <t>Acres</t>
+  </si>
+  <si>
+    <t>Land Use</t>
+  </si>
+  <si>
+    <t>HSG</t>
   </si>
 </sst>
 </file>
@@ -231,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,18 +203,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBE2D5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -269,17 +226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -293,13 +239,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -307,19 +252,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -343,64 +284,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,10 +606,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,52 +621,40 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="2" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2"/>
       <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14"/>
-      <c r="F3" s="16" t="s">
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="F3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="K3" s="13"/>
-      <c r="M3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>0</v>
       </c>
@@ -791,13 +662,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>IFERROR(SUMPRODUCT(_xlfn.DROP(Data!C:C,1),_xlfn.DROP(Data!D:D,1))/SUM(_xlfn.DROP(Data!D:D,1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>3</v>
       </c>
@@ -805,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>4</v>
       </c>
@@ -813,9 +687,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>IFERROR(G9/0.6,"")</f>
@@ -825,181 +699,123 @@
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f>IFERROR(((G6^0.8)*(G10+1)^(0.7))/(1900*(G7^0.5)),"")</f>
+        <v/>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f>IFERROR((1000/G5)-10,"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="8" t="str">
-        <f>IFERROR(((G6^0.8)*(G10+1)^(0.7))/(1900*(G7^0.5)),"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="str">
-        <f>IFERROR((1000/G5)-10,"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
         <f>G13*1.2</f>
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6">
-        <f>N13*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <f t="shared" ref="H14:H18" si="0">G14*1.2</f>
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6">
-        <f t="shared" ref="O14:O18" si="1">N14*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>25</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>25</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>50</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>50</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>100</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>100</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1008,154 +824,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFA0E66-79CC-4722-AD2E-9ACE4966D3D9}">
-  <dimension ref="F1:H58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="9">
-        <f>COUNTA(A:A)</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F3" t="e" cm="1" vm="1">
-        <f t="array" ref="F3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(B:B, B:B&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3">
-        <f>COUNTIF(B:B,F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="str">
+      <c r="F1" s="8">
+        <f>COUNTA(_xlfn.DROP(A:A,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" t="str" cm="1">
+        <f t="array" ref="F3">IFERROR(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.DROP(B:B,1),_xlfn.DROP(B:B,1)&lt;&gt;""))),"")</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(F3&lt;&gt;"",COUNTIF(B:B,F3),"")</f>
+        <v/>
+      </c>
+      <c r="H3" s="9" t="str">
         <f>IFERROR(G3/$F$1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G4">
         <f t="shared" ref="G4:G9" si="0">COUNTIF(B:B,F4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="10" t="str">
+      <c r="H4" s="9" t="str">
         <f t="shared" ref="H4:H9" si="1">IFERROR(G4/$F$1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="10" t="str">
+      <c r="H5" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F12" t="e" cm="1" vm="1">
-        <f t="array" ref="F12">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(A:A, A:A&lt;&gt;"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12">
-        <f>COUNTIF(A:A,F12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="str">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="str" cm="1">
+        <f t="array" ref="F12">IFERROR(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.DROP(A:A,1), _xlfn.DROP(A:A,1)&lt;&gt;""))),"")</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(F12&lt;&gt;"",COUNTIF(A:A,F12),"")</f>
+        <v/>
+      </c>
+      <c r="H12" s="9" t="str">
         <f>IFERROR(G12/$F$1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G13">
         <f t="shared" ref="G13:G58" si="2">COUNTIF(A:A,F13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="9" t="str">
         <f t="shared" ref="H13:H58" si="3">IFERROR(G13/$F$1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1165,7 +994,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1175,7 +1004,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1185,7 +1014,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="H19" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1195,7 +1024,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="10" t="str">
+      <c r="H20" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1205,7 +1034,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="10" t="str">
+      <c r="H21" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1215,7 +1044,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="10" t="str">
+      <c r="H22" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1225,7 +1054,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H23" s="10" t="str">
+      <c r="H23" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1235,7 +1064,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="10" t="str">
+      <c r="H24" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1245,7 +1074,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H25" s="10" t="str">
+      <c r="H25" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1255,7 +1084,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H26" s="10" t="str">
+      <c r="H26" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1265,7 +1094,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="10" t="str">
+      <c r="H27" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1275,7 +1104,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="10" t="str">
+      <c r="H28" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1285,7 +1114,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="10" t="str">
+      <c r="H29" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1295,7 +1124,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H30" s="10" t="str">
+      <c r="H30" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1305,7 +1134,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="10" t="str">
+      <c r="H31" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1315,7 +1144,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H32" s="10" t="str">
+      <c r="H32" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1325,7 +1154,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H33" s="10" t="str">
+      <c r="H33" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1335,7 +1164,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H34" s="10" t="str">
+      <c r="H34" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1345,7 +1174,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H35" s="10" t="str">
+      <c r="H35" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1355,7 +1184,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H36" s="10" t="str">
+      <c r="H36" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1365,7 +1194,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H37" s="10" t="str">
+      <c r="H37" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1375,7 +1204,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H38" s="10" t="str">
+      <c r="H38" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1385,7 +1214,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H39" s="10" t="str">
+      <c r="H39" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1395,7 +1224,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="10" t="str">
+      <c r="H40" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1405,7 +1234,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="10" t="str">
+      <c r="H41" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1415,7 +1244,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="10" t="str">
+      <c r="H42" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1425,7 +1254,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H43" s="10" t="str">
+      <c r="H43" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1435,7 +1264,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H44" s="10" t="str">
+      <c r="H44" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1445,7 +1274,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H45" s="10" t="str">
+      <c r="H45" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1455,7 +1284,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H46" s="10" t="str">
+      <c r="H46" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1465,7 +1294,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H47" s="10" t="str">
+      <c r="H47" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1475,7 +1304,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H48" s="10" t="str">
+      <c r="H48" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1485,7 +1314,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H49" s="10" t="str">
+      <c r="H49" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1495,7 +1324,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H50" s="10" t="str">
+      <c r="H50" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1505,7 +1334,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H51" s="10" t="str">
+      <c r="H51" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1515,7 +1344,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H52" s="10" t="str">
+      <c r="H52" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1525,7 +1354,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H53" s="10" t="str">
+      <c r="H53" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1535,7 +1364,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H54" s="10" t="str">
+      <c r="H54" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1545,7 +1374,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H55" s="10" t="str">
+      <c r="H55" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1555,7 +1384,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H56" s="10" t="str">
+      <c r="H56" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1565,7 +1394,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H57" s="10" t="str">
+      <c r="H57" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1575,76 +1404,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H58" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A636A4AB-811E-4DDB-8169-5224BF38558D}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2">
-        <f>SUM(I2:I291)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K4" t="e">
-        <f>SUMPRODUCT(H2:H291,I2:I291)/K2</f>
-        <v>#DIV/0!</v>
+      <c r="H58" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
